--- a/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
+++ b/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
@@ -34,7 +34,7 @@
     <t>Genauigkeit Lösung 0</t>
   </si>
   <si>
-    <t>Ist-zustand</t>
+    <t>Ist-Zustand</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ist-zustand</c:v>
+                  <c:v>Ist-Zustand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -364,12 +364,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389645872"/>
-        <c:axId val="389646264"/>
+        <c:axId val="314975056"/>
+        <c:axId val="314972704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389645872"/>
+        <c:axId val="314975056"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -490,12 +491,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389646264"/>
+        <c:crossAx val="314972704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389646264"/>
+        <c:axId val="314972704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +609,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389645872"/>
+        <c:crossAx val="314975056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1610,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
+++ b/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -364,11 +364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="314975056"/>
-        <c:axId val="314972704"/>
+        <c:axId val="243857112"/>
+        <c:axId val="243855544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="314975056"/>
+        <c:axId val="243857112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -478,10 +478,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -491,12 +488,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314972704"/>
+        <c:crossAx val="243855544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="314972704"/>
+        <c:axId val="243855544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +534,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-CH" sz="1800"/>
-                  <a:t>Standardabweichung (Meter)</a:t>
+                  <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -596,10 +593,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -609,41 +603,11 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314975056"/>
+        <c:crossAx val="243857112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
@@ -680,10 +644,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1611,23 +1572,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:15" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>0</v>
       </c>
@@ -1669,7 +1630,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H4">
         <f>MAX(A3:A5,D3:D5)</f>
         <v>0</v>

--- a/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
+++ b/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
@@ -364,11 +364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243857112"/>
-        <c:axId val="243855544"/>
+        <c:axId val="274280688"/>
+        <c:axId val="274281080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243857112"/>
+        <c:axId val="274280688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -398,10 +398,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -409,16 +406,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -440,10 +449,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -488,12 +494,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243855544"/>
+        <c:crossAx val="274281080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243855544"/>
+        <c:axId val="274281080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,10 +528,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -533,7 +536,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
@@ -555,10 +562,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -603,7 +607,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243857112"/>
+        <c:crossAx val="274280688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -687,7 +691,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>

--- a/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
+++ b/doc/thesis/pictures/resultate/loesung0/loesung0_0.xlsx
@@ -364,14 +364,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274280688"/>
-        <c:axId val="274281080"/>
+        <c:axId val="266583080"/>
+        <c:axId val="266584648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="274280688"/>
+        <c:axId val="266583080"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -494,12 +495,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274281080"/>
+        <c:crossAx val="266584648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274281080"/>
+        <c:axId val="266584648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +608,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274280688"/>
+        <c:crossAx val="266583080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
